--- a/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/集体资本金.xlsx
+++ b/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/集体资本金.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,363 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>6.49132</v>
-      </c>
-      <c r="C2" t="n">
-        <v>17.50077</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.17795</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.0113</v>
-      </c>
-      <c r="F2" t="n">
-        <v>5.82409</v>
-      </c>
-      <c r="G2" t="n">
-        <v>19.50396</v>
-      </c>
-      <c r="H2" t="n">
-        <v>6.18017</v>
-      </c>
-      <c r="I2" t="n">
-        <v>6.61745</v>
-      </c>
-      <c r="J2" t="n">
-        <v>10.15569</v>
-      </c>
-      <c r="K2" t="n">
-        <v>28.21922</v>
-      </c>
-      <c r="L2" t="n">
-        <v>391.0735</v>
-      </c>
-      <c r="M2" t="n">
-        <v>4.13566</v>
-      </c>
-      <c r="N2" t="n">
-        <v>5.45865</v>
-      </c>
-      <c r="O2" t="n">
-        <v>10.86643</v>
-      </c>
-      <c r="P2" t="n">
-        <v>13.90395</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.0075</v>
-      </c>
-      <c r="R2" t="n">
-        <v>21.26008</v>
-      </c>
-      <c r="S2" t="n">
-        <v>5.06302</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="n">
-        <v>3.683</v>
-      </c>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="n">
-        <v>0.35836</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.16344</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>26.09886</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>18.75016</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>34.18368</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>9.85126</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>2.14556</v>
-      </c>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="n">
-        <v>33.25673</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.182</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>7.52496</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>23.28298</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>30.27333</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.75628</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>6.63081</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>9.89968</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>9.79426</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>10.83773</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.02321</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>5.83081</v>
-      </c>
-      <c r="C3" t="n">
-        <v>14.42112</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.51842</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>3.91825</v>
-      </c>
-      <c r="G3" t="n">
-        <v>25.33394</v>
-      </c>
-      <c r="H3" t="n">
-        <v>5.11057</v>
-      </c>
-      <c r="I3" t="n">
-        <v>8.920059999999999</v>
-      </c>
-      <c r="J3" t="n">
-        <v>8.17365</v>
-      </c>
-      <c r="K3" t="n">
-        <v>23.54629</v>
-      </c>
-      <c r="L3" t="n">
-        <v>353.80951</v>
-      </c>
-      <c r="M3" t="n">
-        <v>3.53096</v>
-      </c>
-      <c r="N3" t="n">
-        <v>4.56445</v>
-      </c>
-      <c r="O3" t="n">
-        <v>8.304639999999999</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.69722</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.01385</v>
-      </c>
-      <c r="R3" t="n">
-        <v>21.00855</v>
-      </c>
-      <c r="S3" t="n">
-        <v>4.64611</v>
-      </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
-        <v>3.98491</v>
-      </c>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="n">
-        <v>0.2176</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.64048</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>25.74239</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>19.12351</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>31.40126</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>8.812340000000001</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1.35843</v>
-      </c>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="n">
-        <v>29.40442</v>
-      </c>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="n">
-        <v>8.110010000000001</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>22.81704</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>27.23764</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.67981</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>7.29483</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>10.18738</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>7.10235</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>6.14422</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>4.75998</v>
-      </c>
-      <c r="C4" t="n">
-        <v>16.89262</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.1514</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>4.9048</v>
-      </c>
-      <c r="G4" t="n">
-        <v>23.54613</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4.02655</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6.45131</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9.45823</v>
-      </c>
-      <c r="K4" t="n">
-        <v>22.28714</v>
-      </c>
-      <c r="L4" t="n">
-        <v>310.83866</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3.01863</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3.93156</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8.016249999999999</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.61295</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.0103</v>
-      </c>
-      <c r="R4" t="n">
-        <v>18.59631</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3.2714</v>
-      </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="n">
-        <v>3.93912</v>
-      </c>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="n">
-        <v>0.8173</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.16498</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>11.59868</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>10.86921</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>26.66124</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>7.0551</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>1.59197</v>
-      </c>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="n">
-        <v>27.87918</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1.12031</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>6.6743</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>20.08681</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>27.62429</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0.77618</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>4.65082</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>8.80944</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>8.63072</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>6.93209</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.02136</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
